--- a/results/mp/logistic/corona/confidence/168/desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>hell</t>
@@ -64,49 +70,37 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>falling</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>low</t>
   </si>
   <si>
     <t>avoid</t>
@@ -115,16 +109,16 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
@@ -136,6 +130,12 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -145,15 +145,30 @@
     <t>of</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>a</t>
+    <t>in</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -166,183 +181,189 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>create</t>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
@@ -352,55 +373,67 @@
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -758,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -877,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -895,31 +928,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -969,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -977,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1019,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1027,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1045,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8116438356164384</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C8">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1119,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1127,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7826086956521739</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1145,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1169,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1177,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,13 +1260,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.9033942558746736</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1269,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,13 +1310,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.8983050847457628</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1319,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.64</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1395,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.890625</v>
+        <v>0.8877284595300261</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1460,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6190476190476191</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C15">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1477,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5666666666666667</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1495,31 +1528,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="L16">
+        <v>93</v>
+      </c>
+      <c r="M16">
+        <v>93</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>13</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16">
-        <v>0.8802816901408451</v>
-      </c>
-      <c r="L16">
-        <v>125</v>
-      </c>
-      <c r="M16">
-        <v>125</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,7 +1581,7 @@
         <v>229</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K17">
         <v>0.875</v>
@@ -1577,13 +1610,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5490196078431373</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1660,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1710,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4102564102564102</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.8448275862068966</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1760,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.40625</v>
+        <v>0.425</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.8333333333333334</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1810,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.8297872340425532</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1819,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3728813559322034</v>
+        <v>0.4026845637583892</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1869,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,13 +1910,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3611111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1895,31 +1928,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.8235294117647058</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L24">
+        <v>68</v>
+      </c>
+      <c r="M24">
+        <v>68</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>14</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3513513513513514</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1945,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.8214285714285714</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1969,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,13 +2010,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3454545454545455</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K26">
         <v>0.8205128205128205</v>
@@ -2007,16 +2040,16 @@
         <v>32</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -2027,13 +2060,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.2972222222222222</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.82</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,13 +2110,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3027777777777778</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C28">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2095,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2119,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2127,13 +2160,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.302013422818792</v>
+        <v>0.1875</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2145,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2169,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2177,13 +2210,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2909090909090909</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K30">
         <v>0.7894736842105263</v>
@@ -2227,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2321428571428572</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.78</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2269,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2310,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2077922077922078</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2360,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1349206349206349</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,37 +2410,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1072386058981233</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>333</v>
+        <v>855</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2419,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,37 +2460,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01193933526944176</v>
+        <v>0.01553900938815151</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E35">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F35">
-        <v>0.8200000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3062</v>
+        <v>3041</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K35">
         <v>0.75</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2469,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,37 +2510,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01081335213916314</v>
+        <v>0.01370510396975425</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E36">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="F36">
-        <v>0.5900000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2104</v>
+        <v>2087</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2519,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,37 +2560,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008023648648648648</v>
+        <v>0.01270110076206605</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F37">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2349</v>
+        <v>2332</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.7382352941176471</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,37 +2610,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00722233066562561</v>
+        <v>0.01235657546337158</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E38">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="F38">
-        <v>0.47</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>5086</v>
+        <v>1119</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.7272727272727273</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2619,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,49 +2660,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006094906399651719</v>
+        <v>0.008752735229759299</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E39">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="F39">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2283</v>
+        <v>2265</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.7210884353741497</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L39">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="M39">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2677,37 +2710,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005127010020974132</v>
+        <v>0.008040792312218083</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E40">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F40">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>4269</v>
+        <v>5058</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.7196652719665272</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L40">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="M40">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2719,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2727,89 +2760,137 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003844597329016593</v>
+        <v>0.007497656982193065</v>
       </c>
       <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>0.6</v>
+      </c>
+      <c r="F41">
+        <v>0.4</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2118</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.6915254237288135</v>
+      </c>
+      <c r="L41">
+        <v>204</v>
+      </c>
+      <c r="M41">
+        <v>204</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.0073085478233238</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>0.7</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>3124</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L42">
+        <v>64</v>
+      </c>
+      <c r="M42">
+        <v>64</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.005821205821205822</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>54</v>
+      </c>
+      <c r="E43">
+        <v>0.74</v>
+      </c>
+      <c r="F43">
+        <v>0.26</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2391</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L43">
         <v>19</v>
       </c>
-      <c r="D41">
-        <v>73</v>
-      </c>
-      <c r="E41">
-        <v>0.74</v>
-      </c>
-      <c r="F41">
-        <v>0.26</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>4923</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L41">
-        <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L42">
-        <v>23</v>
-      </c>
-      <c r="M42">
-        <v>23</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="L43">
-        <v>16</v>
-      </c>
       <c r="M43">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2821,21 +2902,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.005614035087719298</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4251</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.6914893617021277</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2847,21 +2952,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.005374280230326296</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>82</v>
+      </c>
+      <c r="E45">
+        <v>0.83</v>
+      </c>
+      <c r="F45">
+        <v>0.17</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2591</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.6615384615384615</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2873,12 +3002,36 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.004263093788063338</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>91</v>
+      </c>
+      <c r="E46">
+        <v>0.77</v>
+      </c>
+      <c r="F46">
+        <v>0.23</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>4905</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K46">
         <v>0.6521739130434783</v>
@@ -2904,16 +3057,16 @@
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.651685393258427</v>
+        <v>0.625</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2925,21 +3078,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.6142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2951,21 +3104,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.5833333333333334</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2977,47 +3130,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.5769230769230769</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3029,21 +3182,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.5555555555555556</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3055,21 +3208,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.5490196078431373</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3081,21 +3234,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.5416666666666666</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3107,21 +3260,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.5384615384615384</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L55">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3133,15 +3286,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.5357142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L56">
         <v>15</v>
@@ -3159,21 +3312,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.5161290322580645</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3185,21 +3338,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3211,21 +3364,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K59">
         <v>0.5</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3237,21 +3390,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K60">
-        <v>0.4657534246575342</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L60">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3263,21 +3416,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K61">
-        <v>0.4411764705882353</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3289,21 +3442,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>0.3728813559322034</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3315,21 +3468,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K63">
-        <v>0.34375</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3341,21 +3494,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>0.2456140350877193</v>
+        <v>0.3125</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3367,21 +3520,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>0.2222222222222222</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3393,21 +3546,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K66">
-        <v>0.1376146788990826</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3419,21 +3572,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K67">
-        <v>0.07567567567567568</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3445,47 +3598,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>171</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K68">
-        <v>0.05980861244019139</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>393</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K69">
-        <v>0.05536332179930796</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3497,21 +3650,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>273</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K70">
-        <v>0.05118829981718465</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L70">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3523,449 +3676,787 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>519</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K71">
-        <v>0.03842940685045948</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="L71">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M71">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K72">
-        <v>0.02483443708609271</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>589</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K73">
-        <v>0.01792673421667966</v>
+        <v>0.06228373702422145</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N73">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K74">
-        <v>0.01779755283648498</v>
+        <v>0.06187290969899666</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N74">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O74">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>883</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K75">
-        <v>0.01766561514195584</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N75">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1557</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K76">
-        <v>0.01652271873826511</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="L76">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N76">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>2619</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K77">
-        <v>0.01629072681704261</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>785</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K78">
-        <v>0.01565995525727069</v>
+        <v>0.03321033210332103</v>
       </c>
       <c r="L78">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>880</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K79">
-        <v>0.01539942252165544</v>
+        <v>0.02848423194303154</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>1023</v>
+        <v>955</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K80">
-        <v>0.01519756838905775</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N80">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>972</v>
+        <v>875</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K81">
-        <v>0.01313628899835796</v>
+        <v>0.02653399668325042</v>
       </c>
       <c r="L81">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N81">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="O81">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>2404</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K82">
-        <v>0.0108499095840868</v>
+        <v>0.02557352388115833</v>
       </c>
       <c r="L82">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M82">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="N82">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="O82">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>4923</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K83">
-        <v>0.0103480714957667</v>
+        <v>0.02211538461538462</v>
       </c>
       <c r="L83">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N83">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>3156</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K84">
-        <v>0.009205020920502092</v>
+        <v>0.02149178255372946</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M84">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N84">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="O84">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2368</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="K85">
-        <v>0.008592661402693916</v>
+        <v>0.01952580195258019</v>
       </c>
       <c r="L85">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M85">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N85">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="O85">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>4269</v>
+        <v>703</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="K86">
-        <v>0.008190327613104524</v>
+        <v>0.01882057716436637</v>
       </c>
       <c r="L86">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="O86">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>5086</v>
+        <v>782</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="K87">
-        <v>0.007547169811320755</v>
+        <v>0.01791713325867861</v>
       </c>
       <c r="L87">
         <v>16</v>
       </c>
       <c r="M87">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N87">
-        <v>0.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O87">
-        <v>0.5900000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>2104</v>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88">
+        <v>0.01699181875393329</v>
+      </c>
+      <c r="L88">
+        <v>54</v>
+      </c>
+      <c r="M88">
+        <v>77</v>
+      </c>
+      <c r="N88">
+        <v>0.7</v>
+      </c>
+      <c r="O88">
+        <v>0.3</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89">
+        <v>0.01645413410119292</v>
+      </c>
+      <c r="L89">
+        <v>40</v>
+      </c>
+      <c r="M89">
+        <v>54</v>
+      </c>
+      <c r="N89">
+        <v>0.74</v>
+      </c>
+      <c r="O89">
+        <v>0.26</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K90">
+        <v>0.01548117154811715</v>
+      </c>
+      <c r="L90">
+        <v>37</v>
+      </c>
+      <c r="M90">
+        <v>41</v>
+      </c>
+      <c r="N90">
+        <v>0.9</v>
+      </c>
+      <c r="O90">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K91">
+        <v>0.01407349491790461</v>
+      </c>
+      <c r="L91">
+        <v>18</v>
+      </c>
+      <c r="M91">
+        <v>28</v>
+      </c>
+      <c r="N91">
+        <v>0.64</v>
+      </c>
+      <c r="O91">
+        <v>0.36</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92">
+        <v>0.01407035175879397</v>
+      </c>
+      <c r="L92">
+        <v>70</v>
+      </c>
+      <c r="M92">
+        <v>91</v>
+      </c>
+      <c r="N92">
+        <v>0.77</v>
+      </c>
+      <c r="O92">
+        <v>0.23</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93">
+        <v>0.01288056206088993</v>
+      </c>
+      <c r="L93">
+        <v>66</v>
+      </c>
+      <c r="M93">
+        <v>107</v>
+      </c>
+      <c r="N93">
+        <v>0.62</v>
+      </c>
+      <c r="O93">
+        <v>0.38</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94">
+        <v>0.01277199621570482</v>
+      </c>
+      <c r="L94">
+        <v>27</v>
+      </c>
+      <c r="M94">
+        <v>56</v>
+      </c>
+      <c r="N94">
+        <v>0.48</v>
+      </c>
+      <c r="O94">
+        <v>0.52</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K95">
+        <v>0.01231412639405204</v>
+      </c>
+      <c r="L95">
+        <v>53</v>
+      </c>
+      <c r="M95">
+        <v>77</v>
+      </c>
+      <c r="N95">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O95">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96">
+        <v>0.01120448179271709</v>
+      </c>
+      <c r="L96">
+        <v>24</v>
+      </c>
+      <c r="M96">
+        <v>40</v>
+      </c>
+      <c r="N96">
+        <v>0.6</v>
+      </c>
+      <c r="O96">
+        <v>0.4</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K97">
+        <v>0.01048492791612058</v>
+      </c>
+      <c r="L97">
+        <v>24</v>
+      </c>
+      <c r="M97">
+        <v>44</v>
+      </c>
+      <c r="N97">
+        <v>0.55</v>
+      </c>
+      <c r="O97">
+        <v>0.45</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98">
+        <v>0.009622501850481125</v>
+      </c>
+      <c r="L98">
+        <v>13</v>
+      </c>
+      <c r="M98">
+        <v>25</v>
+      </c>
+      <c r="N98">
+        <v>0.52</v>
+      </c>
+      <c r="O98">
+        <v>0.48</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K99">
+        <v>0.007237122179650915</v>
+      </c>
+      <c r="L99">
+        <v>17</v>
+      </c>
+      <c r="M99">
+        <v>47</v>
+      </c>
+      <c r="N99">
+        <v>0.36</v>
+      </c>
+      <c r="O99">
+        <v>0.64</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K100">
+        <v>0.005884275907159202</v>
+      </c>
+      <c r="L100">
+        <v>18</v>
+      </c>
+      <c r="M100">
+        <v>66</v>
+      </c>
+      <c r="N100">
+        <v>0.27</v>
+      </c>
+      <c r="O100">
+        <v>0.73</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>3041</v>
       </c>
     </row>
   </sheetData>
